--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C3">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="C3">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="C2">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>10</v>

--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="C2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="C2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>11</v>

--- a/Base/Teams/Saints/Target Depth Data.xlsx
+++ b/Base/Teams/Saints/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C3">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
